--- a/VS-SanitySTG/testdata.xlsx
+++ b/VS-SanitySTG/testdata.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68BD56F5-0E22-4304-8841-8C0899533B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{464A06DD-C8C5-403C-813F-DAF5089D99CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="169">
   <si>
     <t>homepageURL</t>
   </si>
@@ -519,6 +519,12 @@
   </si>
   <si>
     <t>GXCONTENT</t>
+  </si>
+  <si>
+    <t>https://author.hq-stg.pwc.com/editor.html/content/valuestore/us/en/firmwide/qa-or-uat/external-pages/automation-external-page.html</t>
+  </si>
+  <si>
+    <t>externalPageAuthor</t>
   </si>
 </sst>
 </file>
@@ -1462,7 +1468,7 @@
   <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1611,7 +1617,12 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
+      <c r="A20" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B20" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
